--- a/spc/results/t01/M_0.30_k_0.05/omp_GAUSSIAN_40dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.30_k_0.05/omp_GAUSSIAN_40dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,616 +850,6 @@
         <v>193.5475807699789</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>191.7256073103218</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>189.9328276994415</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>188.0416523903149</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>186.1789295902712</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>184.28766100937</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>182.4416239898028</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>180.5492372120682</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>178.8759333494374</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>177.3205361978855</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>175.8705473917225</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>174.2165093061357</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>172.8213749946422</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>171.2966853706139</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>169.6773209253493</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>168.1118802157963</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>166.7271375077244</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>165.1201405248822</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>163.5737759464788</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>161.9747203369499</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>160.4983014963124</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>159.0430916642568</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>157.5913972013148</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>156.1118564290628</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>154.5661824313097</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>153.1666960288155</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>151.7514470518444</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>150.3824903112337</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>149.0343368587917</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>147.7607938042897</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>146.5062547787391</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>145.3431601286382</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>143.9692020284182</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>142.6358873137038</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>141.3982185128006</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>140.2357885087576</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>139.0460626450343</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>137.784162191546</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>136.6105657459275</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>135.5226916476168</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>134.3513350111757</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>133.2451151497132</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>132.0926467552212</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>131.2039130550047</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>130.2904258299772</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>129.2537682475791</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128.2730544054738</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>127.3192056009699</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>126.3538308970144</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>125.4781241290296</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>124.5281563573793</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>123.5777580855894</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>122.6769925788301</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>121.7796678547419</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>120.9291941059193</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>120.108694855785</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>119.1750096605148</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>118.1826782868786</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>117.3719799172044</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>116.6088567410069</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>115.7731629603671</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>115.0148153828906</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>114.2721010946782</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>113.4784011390579</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>112.699694999238</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>111.8299686639428</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>111.0601746356678</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>110.3341453231418</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>109.636270332089</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>108.7506022777739</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>107.9264791910014</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>107.1792242950233</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>106.4660556518182</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>105.6914716638808</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>104.9130975617923</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>104.1915478236888</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>103.5293679817119</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>102.78687363165</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>102.1405388887078</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>101.4379392601781</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>100.743897402477</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>99.98989666713621</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>99.29732910482865</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>98.67518669644961</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>97.9558865527618</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>97.34422457155813</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>96.71205621702107</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>96.08042622536989</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>95.43744102641378</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>94.84438489307307</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>94.26293397352707</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>93.68585281770434</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>93.06159786315172</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>92.45426611130941</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>91.83839102849758</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>91.18390621438586</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>90.60953333105351</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>90.04866914867792</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>89.40374024059497</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>88.87356013209316</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>88.37143780754286</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>87.84258910937076</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>87.2182808492249</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>86.69943747610743</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>86.18138706880104</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>85.67536788444131</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>85.11338072316947</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>84.65509566476297</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>84.14156644609236</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>83.65354418490647</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>83.1898997404035</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>82.73652207890079</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>82.27727016491009</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>81.83679202350542</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>81.36358277555013</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>80.8781310891013</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>80.41385241486839</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>79.94603983049228</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>79.49865148126985</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>79.00739158104082</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>78.53041364625835</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>78.07001604520811</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>77.57141980715851</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
